--- a/atomica/library/usdt_framework.xlsx
+++ b/atomica/library/usdt_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E5030-ECFF-4AD0-A581-F2D1616FA185}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB746B-130F-5C43-958C-77F2CCB4FA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,17 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -777,9 +783,6 @@
     <t>Screening rate</t>
   </si>
   <si>
-    <t>probability</t>
-  </si>
-  <si>
     <t>num_screen/max(undx,num_screen)</t>
   </si>
   <si>
@@ -826,6 +829,9 @@
   </si>
   <si>
     <t>Constituents</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -917,9 +923,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -957,9 +963,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,26 +998,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1044,26 +1033,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1243,13 +1215,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="97.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1265,22 +1237,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1312,7 +1284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1341,13 +1313,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1355,7 +1327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1363,39 +1335,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
@@ -1413,17 +1385,17 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1443,7 +1415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -1461,7 +1433,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1479,7 +1451,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1497,7 +1469,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1530,13 +1502,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -1557,7 +1529,7 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1566,7 +1538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
@@ -1575,7 +1547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1584,7 +1556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1607,16 +1579,16 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -1650,7 +1622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -1667,7 +1639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -1684,7 +1656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -1711,24 +1683,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,7 +1729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
@@ -1780,7 +1752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -1788,29 +1760,27 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>64</v>
@@ -1828,37 +1798,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>64</v>
@@ -1876,37 +1844,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>64</v>
@@ -1924,32 +1890,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1960,7 +1924,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1970,7 +1934,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1980,7 +1944,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1990,7 +1954,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2000,7 +1964,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2010,7 +1974,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2020,7 +1984,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2030,7 +1994,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2040,7 +2004,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2050,7 +2014,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2060,7 +2024,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2071,12 +2035,15 @@
       <c r="H21" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H21" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C10:C21" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{AE335AC4-D9A1-C24D-93A3-ED26A792AB23}">
+      <formula1>",number,probability,duration,proportion, rate"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2093,21 +2060,21 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
@@ -2115,7 +2082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2123,7 +2090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -2131,7 +2098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
